--- a/APIs.xlsx
+++ b/APIs.xlsx
@@ -76,19 +76,6 @@
   </si>
   <si>
     <t>{
-        "name": "Hardisk Bohra",
-        "type": "Student",
-        "programme": "M.Sc.IT",
-        "year": 2015,
-        "webmailId": "201512062@daiict.ac.in",
-        "institute": "DAIICT",
-        "username": "hardisk.uvs1994@gmail.com",
-        "password": "hardisk123",
-        "contact": 8306794646
-}</t>
-  </si>
-  <si>
-    <t>{
         "name": "Hardisk U. Bohra",
         "password": "hardisk1234",
         "contact": 9429524319
@@ -96,6 +83,47 @@
   </si>
   <si>
     <t>Expected Response</t>
+  </si>
+  <si>
+    <t>{
+        "Status": true,
+        "Result": "Record deleted successfully."
+ }</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/courses/</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/courses/insert</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/courses/delete/:id</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/courses/update/:id</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/courses/getById/:id</t>
+  </si>
+  <si>
+    <t>{
+        "Status": true,
+        "Result":
+        {
+            "_id": "5808a449f8f9986c1cbbf299",
+            "name": "Hardisk Bohra",
+            "type": "Student",
+            "programme": "M.Sc.IT",
+            "year": 2015,
+            "webmailId": "201512062@daiict.ac.in",
+            "institute": "DAIICT",
+            "username": "hardisk.uvs1994@gmail.com",
+            "password": "hardisk123",
+            "specialization": "null",
+            "university": "null",
+            "contact": 8306794646
+        }
+    }</t>
   </si>
   <si>
     <t>{
@@ -112,27 +140,11 @@
                 "institute": "DAIICT",
                 "username": "hardisk.uvs1994@gmail.com",
                 "password": "hardisk123",
+                "specialization": "null",
+                "university": "null",
                 "contact": 8306794646
             }
         ]
-    }</t>
-  </si>
-  <si>
-    <t>{
-        "Status": true,
-        "Result":
-        {
-            "_id": "5808a449f8f9986c1cbbf299",
-            "name": "Hardisk Bohra",
-            "type": "Student",
-            "programme": "M.Sc.IT",
-            "year": 2015,
-            "webmailId": "201512062@daiict.ac.in",
-            "institute": "DAIICT",
-            "username": "hardisk.uvs1994@gmail.com",
-            "password": "hardisk123",
-            "contact": 8306794646
-        }
     }</t>
   </si>
   <si>
@@ -150,9 +162,26 @@
             "institute": "DAIICT",
             "username": "jaspreetchhabra@gmail.com",
             "password": "jaspreet123",
+            "specialization": "null",
+            "university": "null",
             "contact": 9308306496
         }
     }</t>
+  </si>
+  <si>
+    <t>{
+        "name": "Hardisk Bohra",
+        "type": "Student",
+        "programme": "M.Sc.IT",
+        "year": 2015,
+        "webmailId": "201512062@daiict.ac.in",
+        "institute": "DAIICT",
+        "username": "hardisk.uvs1994@gmail.com",
+        "password": "hardisk123",
+        "specialization": "null",
+        "university": "null",
+        "contact": 8306794646
+}</t>
   </si>
   <si>
     <t>{
@@ -168,31 +197,12 @@
             "institute": "DAIICT",
             "username": "csanghavi1111@gmail.com",
             "password": "chintan123",
+            "specialization": "null",
+            "university": "null",
             "contact": 8965745210,
             "_id": "5809d64bbf52e426d0c2ce05"
         }
     }</t>
-  </si>
-  <si>
-    <t>{
-        "Status": true,
-        "Result": "Record deleted successfully."
- }</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/courses/</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/courses/insert</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/courses/delete/:id</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/courses/update/:id</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/courses/getById/:id</t>
   </si>
 </sst>
 </file>
@@ -575,7 +585,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="288" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -618,10 +628,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -635,10 +645,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -666,10 +676,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -683,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -700,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -722,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -733,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -755,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -766,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
